--- a/resourses.xlsx
+++ b/resourses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\githubfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2041CB-8CE8-4702-9B0B-4DA74361E642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE94F72-A46D-4DA1-BA48-90911DA5EAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{366633EA-82ED-43D1-9393-BA34678353D1}"/>
   </bookViews>
@@ -46,10 +46,10 @@
     <t>departcode</t>
   </si>
   <si>
-    <t>Ahmad Ali</t>
-  </si>
-  <si>
-    <t>احمد علي</t>
+    <t>Car 445522</t>
+  </si>
+  <si>
+    <t>سيارة 445522</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +431,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
